--- a/ig/ch-core/StructureDefinition-ch-core-patient-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-patient-epr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -285,7 +285,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-pat-1-epr:At least one human name shall have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -588,7 +588,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -614,10 +614,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>EPR-SPID: The Central Compensation Office (ZAS; CCO) assigns and manages the new patient identification number according to the EPRA (EPR-SPID), which is only linked internally in the CCO with the AHV number. It maintains the UPI identification database (Unique Personal Identifier Database), which the EPR communities may access. The law regulates how the the EPR-SPID can be used. SR 816.111 states (Art. 10 para. 3 EPDV) that communities must ensure that the EPR-SPID number cannot be not stored in document repositories or document registries.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -639,6 +636,12 @@
   <si>
     <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ahvn13-identifier}
 </t>
+  </si>
+  <si>
+    <t>AHVN13 / NAVS13 of the patient (13 digits starting with 756, no separation points)</t>
+  </si>
+  <si>
+    <t>The AHVN13 / NAVS13 - (abbreviation for new thirteen-digit Social Security number) - is an administrative identifier for natural persons in Switzerland. It is issued, announced and administered by the Central Compensation Office. It is available to all organisations and communities for which there is a legal basis.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -1001,7 +1004,7 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>-&gt; as of HL7 v2.7 PID-40 (leave PID-13 and PID-14 empty)</t>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.telecom.id</t>
@@ -1190,7 +1193,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other</t>
+    <t>male | female | other | unknown* (* see warning 'ch-pat-2')</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1295,7 +1298,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -4183,10 +4186,10 @@
         <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4200,7 +4203,7 @@
         <v>85</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>85</v>
@@ -4257,16 +4260,16 @@
         <v>85</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>85</v>
@@ -4274,13 +4277,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>85</v>
@@ -4302,13 +4305,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4322,7 +4325,7 @@
         <v>85</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>85</v>
@@ -4379,16 +4382,16 @@
         <v>85</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>85</v>
@@ -4396,13 +4399,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>178</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>85</v>
@@ -4427,7 +4430,7 @@
         <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>181</v>
@@ -4444,7 +4447,7 @@
         <v>85</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>85</v>
@@ -4518,10 +4521,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4544,13 +4547,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4601,7 +4604,7 @@
         <v>85</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -4619,7 +4622,7 @@
         <v>85</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>85</v>
@@ -4636,10 +4639,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4665,10 +4668,10 @@
         <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>175</v>
@@ -4712,7 +4715,7 @@
         <v>141</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>85</v>
@@ -4721,7 +4724,7 @@
         <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>83</v>
@@ -4739,7 +4742,7 @@
         <v>85</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>85</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4785,16 +4788,16 @@
         <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>85</v>
@@ -4819,13 +4822,13 @@
         <v>85</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>85</v>
@@ -4843,7 +4846,7 @@
         <v>85</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
@@ -4861,7 +4864,7 @@
         <v>85</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>85</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4904,19 +4907,19 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>85</v>
@@ -4941,13 +4944,13 @@
         <v>85</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>85</v>
@@ -4965,7 +4968,7 @@
         <v>85</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>83</v>
@@ -4983,7 +4986,7 @@
         <v>85</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>85</v>
@@ -4992,7 +4995,7 @@
         <v>85</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>85</v>
@@ -5000,10 +5003,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5029,16 +5032,16 @@
         <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>85</v>
@@ -5051,7 +5054,7 @@
         <v>85</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>85</v>
@@ -5087,7 +5090,7 @@
         <v>85</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -5105,7 +5108,7 @@
         <v>85</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>85</v>
@@ -5114,7 +5117,7 @@
         <v>85</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>85</v>
@@ -5122,10 +5125,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5148,16 +5151,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5171,7 +5174,7 @@
         <v>85</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>85</v>
@@ -5207,7 +5210,7 @@
         <v>85</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -5225,7 +5228,7 @@
         <v>85</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>85</v>
@@ -5234,7 +5237,7 @@
         <v>85</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>85</v>
@@ -5242,10 +5245,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5268,13 +5271,13 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5325,7 +5328,7 @@
         <v>85</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>83</v>
@@ -5343,7 +5346,7 @@
         <v>85</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>85</v>
@@ -5352,7 +5355,7 @@
         <v>85</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>85</v>
@@ -5360,10 +5363,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5386,16 +5389,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5445,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>83</v>
@@ -5463,7 +5466,7 @@
         <v>85</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>85</v>
@@ -5472,7 +5475,7 @@
         <v>85</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>85</v>
@@ -5480,13 +5483,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>178</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>85</v>
@@ -5508,13 +5511,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5528,7 +5531,7 @@
         <v>85</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>85</v>
@@ -5585,16 +5588,16 @@
         <v>85</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>85</v>
@@ -5602,10 +5605,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5628,70 +5631,70 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>83</v>
@@ -5709,13 +5712,13 @@
         <v>85</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>85</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5752,19 +5755,19 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>85</v>
@@ -5813,7 +5816,7 @@
         <v>85</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -5825,13 +5828,13 @@
         <v>156</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>85</v>
@@ -5840,7 +5843,7 @@
         <v>85</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>85</v>
@@ -5848,10 +5851,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5874,19 +5877,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>85</v>
@@ -5923,7 +5926,7 @@
         <v>85</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
@@ -5933,7 +5936,7 @@
         <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>83</v>
@@ -5948,19 +5951,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>85</v>
@@ -5968,10 +5971,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5994,13 +5997,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6051,7 +6054,7 @@
         <v>85</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
@@ -6069,7 +6072,7 @@
         <v>85</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>85</v>
@@ -6086,10 +6089,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6115,10 +6118,10 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>175</v>
@@ -6162,7 +6165,7 @@
         <v>141</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>85</v>
@@ -6171,7 +6174,7 @@
         <v>142</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>83</v>
@@ -6189,7 +6192,7 @@
         <v>85</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>85</v>
@@ -6206,10 +6209,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6235,10 +6238,10 @@
         <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6265,13 +6268,13 @@
         <v>85</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>85</v>
@@ -6289,7 +6292,7 @@
         <v>85</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>83</v>
@@ -6298,7 +6301,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -6307,7 +6310,7 @@
         <v>85</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>85</v>
@@ -6316,7 +6319,7 @@
         <v>85</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>85</v>
@@ -6324,10 +6327,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6350,19 +6353,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>85</v>
@@ -6411,7 +6414,7 @@
         <v>85</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>83</v>
@@ -6429,7 +6432,7 @@
         <v>85</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>85</v>
@@ -6438,7 +6441,7 @@
         <v>85</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>85</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6475,16 +6478,16 @@
         <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>85</v>
@@ -6509,13 +6512,13 @@
         <v>85</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>85</v>
@@ -6533,7 +6536,7 @@
         <v>85</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>83</v>
@@ -6551,7 +6554,7 @@
         <v>85</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>85</v>
@@ -6560,7 +6563,7 @@
         <v>85</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>85</v>
@@ -6568,10 +6571,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6594,16 +6597,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6653,7 +6656,7 @@
         <v>85</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>83</v>
@@ -6671,7 +6674,7 @@
         <v>85</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>85</v>
@@ -6680,7 +6683,7 @@
         <v>85</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>85</v>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6714,13 +6717,13 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6771,7 +6774,7 @@
         <v>85</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
@@ -6789,7 +6792,7 @@
         <v>85</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>85</v>
@@ -6806,13 +6809,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>85</v>
@@ -6834,19 +6837,19 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>85</v>
@@ -6895,7 +6898,7 @@
         <v>85</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6907,13 +6910,13 @@
         <v>156</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>85</v>
@@ -6922,7 +6925,7 @@
         <v>85</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>85</v>
@@ -6930,13 +6933,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>85</v>
@@ -6958,19 +6961,19 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>85</v>
@@ -7019,7 +7022,7 @@
         <v>85</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>83</v>
@@ -7031,13 +7034,13 @@
         <v>156</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>85</v>
@@ -7046,7 +7049,7 @@
         <v>85</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>85</v>
@@ -7054,13 +7057,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>85</v>
@@ -7082,19 +7085,19 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>85</v>
@@ -7143,7 +7146,7 @@
         <v>85</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>83</v>
@@ -7155,13 +7158,13 @@
         <v>156</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>85</v>
@@ -7170,7 +7173,7 @@
         <v>85</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>85</v>
@@ -7178,10 +7181,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7207,16 +7210,16 @@
         <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>85</v>
@@ -7241,13 +7244,13 @@
         <v>85</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>85</v>
@@ -7265,7 +7268,7 @@
         <v>85</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
@@ -7280,19 +7283,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>85</v>
@@ -7300,10 +7303,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7326,19 +7329,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>85</v>
@@ -7387,7 +7390,7 @@
         <v>85</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -7402,30 +7405,30 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7448,19 +7451,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>85</v>
@@ -7509,7 +7512,7 @@
         <v>85</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
@@ -7524,19 +7527,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>85</v>
@@ -7544,10 +7547,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7570,19 +7573,19 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>85</v>
@@ -7631,7 +7634,7 @@
         <v>85</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>83</v>
@@ -7643,13 +7646,13 @@
         <v>156</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>85</v>
@@ -7658,7 +7661,7 @@
         <v>85</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>85</v>
@@ -7666,10 +7669,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7692,17 +7695,17 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>85</v>
@@ -7727,11 +7730,11 @@
         <v>85</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>85</v>
@@ -7749,7 +7752,7 @@
         <v>85</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
@@ -7764,19 +7767,19 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>85</v>
@@ -7784,10 +7787,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7810,13 +7813,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7867,7 +7870,7 @@
         <v>85</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
@@ -7885,7 +7888,7 @@
         <v>85</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>85</v>
@@ -7902,10 +7905,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7931,10 +7934,10 @@
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>175</v>
@@ -7978,7 +7981,7 @@
         <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>85</v>
@@ -7987,7 +7990,7 @@
         <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>83</v>
@@ -8005,7 +8008,7 @@
         <v>85</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>85</v>
@@ -8022,13 +8025,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="C48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>85</v>
@@ -8050,13 +8053,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8107,7 +8110,7 @@
         <v>85</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -8122,7 +8125,7 @@
         <v>144</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>85</v>
@@ -8142,10 +8145,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8168,19 +8171,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>85</v>
@@ -8229,7 +8232,7 @@
         <v>85</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8247,7 +8250,7 @@
         <v>85</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>85</v>
@@ -8256,7 +8259,7 @@
         <v>85</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>85</v>
@@ -8264,10 +8267,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8290,19 +8293,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>85</v>
@@ -8351,7 +8354,7 @@
         <v>85</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -8369,7 +8372,7 @@
         <v>85</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>85</v>
@@ -8378,7 +8381,7 @@
         <v>85</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>85</v>
@@ -8386,10 +8389,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8412,19 +8415,19 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>85</v>
@@ -8473,7 +8476,7 @@
         <v>85</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -8491,16 +8494,16 @@
         <v>85</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>85</v>
@@ -8508,10 +8511,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8534,19 +8537,19 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>85</v>
@@ -8595,7 +8598,7 @@
         <v>85</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -8613,16 +8616,16 @@
         <v>85</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>85</v>
@@ -8630,10 +8633,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8656,19 +8659,19 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>85</v>
@@ -8705,7 +8708,7 @@
         <v>85</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
@@ -8715,7 +8718,7 @@
         <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
@@ -8727,16 +8730,16 @@
         <v>85</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>85</v>
@@ -8750,10 +8753,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8776,13 +8779,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8833,7 +8836,7 @@
         <v>85</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -8851,7 +8854,7 @@
         <v>85</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>85</v>
@@ -8868,10 +8871,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8897,10 +8900,10 @@
         <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>175</v>
@@ -8953,7 +8956,7 @@
         <v>85</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
@@ -8971,7 +8974,7 @@
         <v>85</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>85</v>
@@ -8988,14 +8991,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9017,10 +9020,10 @@
         <v>138</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>175</v>
@@ -9075,7 +9078,7 @@
         <v>85</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
@@ -9110,10 +9113,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9136,17 +9139,17 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>85</v>
@@ -9171,13 +9174,13 @@
         <v>85</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>85</v>
@@ -9195,7 +9198,7 @@
         <v>85</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -9213,16 +9216,16 @@
         <v>85</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>85</v>
@@ -9230,10 +9233,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9256,17 +9259,17 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>85</v>
@@ -9315,7 +9318,7 @@
         <v>85</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9333,16 +9336,16 @@
         <v>85</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>85</v>
@@ -9350,10 +9353,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9376,19 +9379,19 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>85</v>
@@ -9437,7 +9440,7 @@
         <v>85</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -9455,16 +9458,16 @@
         <v>85</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>85</v>
@@ -9472,10 +9475,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9498,17 +9501,17 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>85</v>
@@ -9557,7 +9560,7 @@
         <v>85</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -9575,16 +9578,16 @@
         <v>85</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>85</v>
@@ -9592,10 +9595,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9621,14 +9624,14 @@
         <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>85</v>
@@ -9653,13 +9656,13 @@
         <v>85</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>85</v>
@@ -9677,7 +9680,7 @@
         <v>85</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -9695,16 +9698,16 @@
         <v>85</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>85</v>
@@ -9712,10 +9715,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9738,17 +9741,17 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>85</v>
@@ -9797,7 +9800,7 @@
         <v>85</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -9806,7 +9809,7 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9815,16 +9818,16 @@
         <v>85</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>85</v>
@@ -9832,10 +9835,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9858,13 +9861,13 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9915,7 +9918,7 @@
         <v>85</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
@@ -9933,10 +9936,10 @@
         <v>85</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>85</v>
@@ -9950,13 +9953,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>85</v>
@@ -9978,19 +9981,19 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>85</v>
@@ -10039,7 +10042,7 @@
         <v>85</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -10051,16 +10054,16 @@
         <v>85</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>85</v>
@@ -10074,10 +10077,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10100,13 +10103,13 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10157,7 +10160,7 @@
         <v>85</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>83</v>
@@ -10175,7 +10178,7 @@
         <v>85</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>85</v>
@@ -10192,10 +10195,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10221,10 +10224,10 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>175</v>
@@ -10277,7 +10280,7 @@
         <v>85</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
@@ -10295,7 +10298,7 @@
         <v>85</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>85</v>
@@ -10312,14 +10315,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10341,10 +10344,10 @@
         <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>175</v>
@@ -10399,7 +10402,7 @@
         <v>85</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -10434,10 +10437,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10460,17 +10463,17 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>85</v>
@@ -10480,7 +10483,7 @@
         <v>85</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>85</v>
@@ -10495,13 +10498,13 @@
         <v>85</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>85</v>
@@ -10519,7 +10522,7 @@
         <v>85</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -10537,16 +10540,16 @@
         <v>85</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>85</v>
@@ -10554,10 +10557,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10580,17 +10583,17 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>85</v>
@@ -10639,7 +10642,7 @@
         <v>85</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
@@ -10657,16 +10660,16 @@
         <v>85</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>85</v>
@@ -10674,10 +10677,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10700,19 +10703,19 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>85</v>
@@ -10761,7 +10764,7 @@
         <v>85</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
@@ -10779,16 +10782,16 @@
         <v>85</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>85</v>
@@ -10796,10 +10799,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10822,19 +10825,19 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>85</v>
@@ -10883,7 +10886,7 @@
         <v>85</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -10895,13 +10898,13 @@
         <v>156</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>85</v>
@@ -10910,7 +10913,7 @@
         <v>85</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>85</v>
@@ -10918,10 +10921,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10947,14 +10950,14 @@
         <v>113</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>85</v>
@@ -10979,13 +10982,13 @@
         <v>85</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>85</v>
@@ -11003,7 +11006,7 @@
         <v>85</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -11021,16 +11024,16 @@
         <v>85</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>85</v>
@@ -11038,10 +11041,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11064,17 +11067,17 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>85</v>
@@ -11123,7 +11126,7 @@
         <v>85</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11132,7 +11135,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11141,16 +11144,16 @@
         <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>85</v>
@@ -11158,10 +11161,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11184,13 +11187,13 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11241,7 +11244,7 @@
         <v>85</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -11259,10 +11262,10 @@
         <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>85</v>
@@ -11276,13 +11279,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11304,19 +11307,19 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>85</v>
@@ -11365,7 +11368,7 @@
         <v>85</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
@@ -11377,16 +11380,16 @@
         <v>85</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>85</v>
@@ -11400,10 +11403,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11426,13 +11429,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11483,7 +11486,7 @@
         <v>85</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>83</v>
@@ -11501,7 +11504,7 @@
         <v>85</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>85</v>
@@ -11518,10 +11521,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11547,10 +11550,10 @@
         <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>175</v>
@@ -11603,7 +11606,7 @@
         <v>85</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>83</v>
@@ -11621,7 +11624,7 @@
         <v>85</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>85</v>
@@ -11638,14 +11641,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11667,10 +11670,10 @@
         <v>138</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>175</v>
@@ -11725,7 +11728,7 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -11760,10 +11763,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11786,17 +11789,17 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>85</v>
@@ -11806,7 +11809,7 @@
         <v>85</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>85</v>
@@ -11821,13 +11824,13 @@
         <v>85</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>85</v>
@@ -11845,7 +11848,7 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -11863,16 +11866,16 @@
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>85</v>
@@ -11880,10 +11883,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11906,17 +11909,17 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>85</v>
@@ -11965,7 +11968,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -11983,16 +11986,16 @@
         <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>85</v>
@@ -12000,10 +12003,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12026,19 +12029,19 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12087,7 +12090,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12105,16 +12108,16 @@
         <v>85</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>85</v>
@@ -12122,10 +12125,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12148,17 +12151,17 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12207,7 +12210,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12225,16 +12228,16 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>85</v>
@@ -12242,10 +12245,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12271,14 +12274,14 @@
         <v>113</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12303,13 +12306,13 @@
         <v>85</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>85</v>
@@ -12327,7 +12330,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
@@ -12345,16 +12348,16 @@
         <v>85</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>85</v>
@@ -12362,10 +12365,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12388,17 +12391,17 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>85</v>
@@ -12447,7 +12450,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12456,7 +12459,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12465,16 +12468,16 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>85</v>
@@ -12482,10 +12485,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12508,13 +12511,13 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12565,7 +12568,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12583,10 +12586,10 @@
         <v>85</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>85</v>
@@ -12600,10 +12603,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12626,19 +12629,19 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>85</v>
@@ -12675,7 +12678,7 @@
         <v>85</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
@@ -12685,7 +12688,7 @@
         <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12703,10 +12706,10 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>85</v>
@@ -12720,10 +12723,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12746,13 +12749,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12803,7 +12806,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12821,7 +12824,7 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>85</v>
@@ -12838,10 +12841,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12867,10 +12870,10 @@
         <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>175</v>
@@ -12923,7 +12926,7 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -12941,7 +12944,7 @@
         <v>85</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>85</v>
@@ -12958,14 +12961,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12987,10 +12990,10 @@
         <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>175</v>
@@ -13045,7 +13048,7 @@
         <v>85</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
@@ -13080,10 +13083,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13106,19 +13109,19 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>85</v>
@@ -13167,7 +13170,7 @@
         <v>85</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>93</v>
@@ -13185,16 +13188,16 @@
         <v>85</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>85</v>
@@ -13202,10 +13205,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13228,19 +13231,19 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>85</v>
@@ -13289,7 +13292,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13307,16 +13310,16 @@
         <v>85</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>85</v>
@@ -13324,13 +13327,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>85</v>
@@ -13352,19 +13355,19 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>85</v>
@@ -13413,7 +13416,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13428,13 +13431,13 @@
         <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>85</v>
@@ -13448,10 +13451,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13474,13 +13477,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13531,7 +13534,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13549,7 +13552,7 @@
         <v>85</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>85</v>
@@ -13566,10 +13569,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13595,10 +13598,10 @@
         <v>138</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>175</v>
@@ -13651,7 +13654,7 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -13669,7 +13672,7 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>85</v>
@@ -13686,14 +13689,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13715,10 +13718,10 @@
         <v>138</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>175</v>
@@ -13773,7 +13776,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
@@ -13808,10 +13811,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13834,19 +13837,19 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
@@ -13895,7 +13898,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>93</v>
@@ -13913,16 +13916,16 @@
         <v>85</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>85</v>
@@ -13930,10 +13933,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13956,26 +13959,26 @@
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>85</v>
@@ -14017,7 +14020,7 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14035,16 +14038,16 @@
         <v>85</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>85</v>
@@ -14052,14 +14055,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14078,16 +14081,16 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14137,7 +14140,7 @@
         <v>85</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14155,16 +14158,16 @@
         <v>85</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>85</v>
@@ -14172,10 +14175,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14198,19 +14201,19 @@
         <v>94</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>85</v>
@@ -14259,7 +14262,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14277,10 +14280,10 @@
         <v>85</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>85</v>
@@ -14294,10 +14297,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14320,19 +14323,19 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
@@ -14381,7 +14384,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
@@ -14399,10 +14402,10 @@
         <v>85</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>85</v>
@@ -14416,10 +14419,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14442,13 +14445,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14499,7 +14502,7 @@
         <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
@@ -14517,7 +14520,7 @@
         <v>85</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>85</v>
@@ -14534,10 +14537,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14563,10 +14566,10 @@
         <v>138</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>175</v>
@@ -14619,7 +14622,7 @@
         <v>85</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>83</v>
@@ -14637,7 +14640,7 @@
         <v>85</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>85</v>
@@ -14654,14 +14657,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14683,10 +14686,10 @@
         <v>138</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>175</v>
@@ -14741,7 +14744,7 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
@@ -14776,10 +14779,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14802,16 +14805,16 @@
         <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14861,7 +14864,7 @@
         <v>85</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>93</v>
@@ -14882,13 +14885,13 @@
         <v>184</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>85</v>
@@ -14896,10 +14899,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14925,10 +14928,10 @@
         <v>113</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14955,13 +14958,13 @@
         <v>85</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>85</v>
@@ -14979,7 +14982,7 @@
         <v>85</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>93</v>
@@ -14997,10 +15000,10 @@
         <v>85</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>85</v>

--- a/ig/ch-core/StructureDefinition-ch-core-patient-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-patient-epr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="697">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,7 +285,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-pat-1-epr:At least one human name shall have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-pat-1-epr:At least one human name shall have a family name. {name.where(family.exists()).count()&gt;0}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -481,6 +481,10 @@
     <t>The registered place of birth of the patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
@@ -500,10 +504,6 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-religion|5.2.0}
+    <t xml:space="preserve">Extension {patient-religion|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -860,7 +860,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1799,7 +1799,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2029,8 +2029,7 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -2094,36 +2093,6 @@
   </si>
   <si>
     <t>PID-15</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Patient.generalPractitioner</t>
@@ -2133,7 +2102,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2204,7 +2173,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2549,7 +2518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP150"/>
+  <dimension ref="A1:AP144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2558,9 +2527,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2583,7 +2552,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3777,13 +3746,13 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>85</v>
@@ -3803,13 +3772,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3831,13 +3800,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3897,7 +3866,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>144</v>
@@ -4017,7 +3986,7 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>163</v>
@@ -4137,7 +4106,7 @@
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>144</v>
@@ -8109,7 +8078,7 @@
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>144</v>
@@ -10023,7 +9992,7 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>144</v>
@@ -11937,7 +11906,7 @@
         <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>144</v>
@@ -18294,14 +18263,16 @@
         <v>85</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AC131" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD131" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>636</v>
@@ -18319,7 +18290,7 @@
         <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>85</v>
+        <v>641</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>642</v>
@@ -18946,20 +18917,18 @@
         <v>663</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="C137" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>85</v>
@@ -18971,20 +18940,18 @@
         <v>85</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>549</v>
+        <v>665</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>85</v>
       </c>
@@ -19032,7 +18999,7 @@
         <v>85</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>83</v>
@@ -19047,19 +19014,19 @@
         <v>105</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>666</v>
+        <v>85</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>643</v>
+        <v>209</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>85</v>
+        <v>670</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>85</v>
@@ -19067,10 +19034,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19090,19 +19057,23 @@
         <v>85</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>206</v>
+        <v>672</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>675</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>85</v>
       </c>
@@ -19150,7 +19121,7 @@
         <v>85</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>208</v>
+        <v>671</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>83</v>
@@ -19162,16 +19133,16 @@
         <v>85</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>209</v>
+        <v>599</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>85</v>
+        <v>676</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>85</v>
@@ -19185,14 +19156,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19205,24 +19176,26 @@
         <v>85</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>138</v>
+        <v>549</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>212</v>
+        <v>678</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>213</v>
+        <v>679</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>85</v>
       </c>
@@ -19270,7 +19243,7 @@
         <v>85</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>215</v>
+        <v>677</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>83</v>
@@ -19282,16 +19255,16 @@
         <v>85</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM139" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>85</v>
@@ -19305,46 +19278,42 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>560</v>
+        <v>85</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>561</v>
+        <v>206</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>85</v>
       </c>
@@ -19392,25 +19361,25 @@
         <v>85</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>563</v>
+        <v>208</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>85</v>
@@ -19427,21 +19396,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>85</v>
@@ -19453,20 +19422,18 @@
         <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>648</v>
+        <v>212</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>649</v>
+        <v>213</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>85</v>
       </c>
@@ -19490,13 +19457,13 @@
         <v>85</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>85</v>
@@ -19514,34 +19481,34 @@
         <v>85</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>647</v>
+        <v>215</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>652</v>
+        <v>209</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>653</v>
+        <v>85</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>654</v>
+        <v>85</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>85</v>
@@ -19549,52 +19516,52 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>658</v>
+        <v>175</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>659</v>
+        <v>176</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>672</v>
+        <v>85</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>85</v>
@@ -19636,34 +19603,34 @@
         <v>85</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>660</v>
+        <v>136</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>662</v>
+        <v>85</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>85</v>
@@ -19671,21 +19638,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>674</v>
+        <v>85</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>85</v>
@@ -19694,19 +19661,19 @@
         <v>85</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19756,13 +19723,13 @@
         <v>85</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>85</v>
@@ -19774,7 +19741,7 @@
         <v>85</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>679</v>
+        <v>184</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>209</v>
@@ -19783,7 +19750,7 @@
         <v>85</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>85</v>
@@ -19791,10 +19758,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19802,7 +19769,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>93</v>
@@ -19817,20 +19784,16 @@
         <v>94</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>85</v>
       </c>
@@ -19854,13 +19817,13 @@
         <v>85</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>85</v>
+        <v>694</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>85</v>
+        <v>695</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>85</v>
@@ -19878,10 +19841,10 @@
         <v>85</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>93</v>
@@ -19896,10 +19859,10 @@
         <v>85</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>599</v>
+        <v>696</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>686</v>
+        <v>209</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>85</v>
@@ -19908,726 +19871,6 @@
         <v>85</v>
       </c>
       <c r="AP144" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP145" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP146" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP147" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP148" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP150" t="s" s="2">
         <v>85</v>
       </c>
     </row>
